--- a/original_files/TSSvsTTS_2_FC10000_lenght1000.xlsx
+++ b/original_files/TSSvsTTS_2_FC10000_lenght1000.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bioinformática\ChIP_seq\WT vs T3\IPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e771c42a765a3e1/Escritorio/TAF1_genetics/original_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_665C4F8DD722FCE781B6BE5C119D5BA06D6EF732" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCF1CFCC-41E7-40AE-A223-30B8FFB5300E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2528,7 +2529,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2839,16 +2840,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B832"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>831</v>
       </c>
@@ -2856,7 +2860,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2864,7 +2868,7 @@
         <v>230861122.53907126</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2872,7 +2876,7 @@
         <v>228643786.27025929</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2880,7 +2884,7 @@
         <v>95997062.530908257</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2888,7 +2892,7 @@
         <v>66814198.662089333</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2896,7 +2900,7 @@
         <v>63664117.80144985</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2904,7 +2908,7 @@
         <v>59134904.891492054</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2912,7 +2916,7 @@
         <v>48430690.269703917</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2920,7 +2924,7 @@
         <v>44979602.880913436</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2928,7 +2932,7 @@
         <v>32407023.705216497</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2936,7 +2940,7 @@
         <v>32141884.723027438</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2944,7 +2948,7 @@
         <v>23114592.675843049</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2952,7 +2956,7 @@
         <v>19959652.997985691</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>18543173.470883936</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2968,7 +2972,7 @@
         <v>15689017.674492938</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>14878102.946732718</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2984,7 +2988,7 @@
         <v>14461775.276999598</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2992,7 +2996,7 @@
         <v>13927547.453640014</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>12723332.896690257</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3008,7 +3012,7 @@
         <v>12691695.167060707</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3016,7 +3020,7 @@
         <v>12413259.84582616</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3024,7 +3028,7 @@
         <v>12088864.813873714</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3032,7 +3036,7 @@
         <v>11608001.593932539</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>11392757.731388593</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>10923448.873598397</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3056,7 +3060,7 @@
         <v>10505313.460772663</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3064,7 +3068,7 @@
         <v>10475050.992451545</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -3072,7 +3076,7 @@
         <v>10032006.578945225</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -3080,7 +3084,7 @@
         <v>9544682.8028851915</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -3088,7 +3092,7 @@
         <v>8945781.661538111</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -3096,7 +3100,7 @@
         <v>8918736.457593102</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -3104,7 +3108,7 @@
         <v>8590394.3448482025</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -3112,7 +3116,7 @@
         <v>8324476.861895456</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -3120,7 +3124,7 @@
         <v>8018218.1810388584</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -3128,7 +3132,7 @@
         <v>7529209.7348107696</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -3136,7 +3140,7 @@
         <v>7454012.6072319392</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3144,7 +3148,7 @@
         <v>7369080.089076479</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3152,7 +3156,7 @@
         <v>6559513.98231686</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3160,7 +3164,7 @@
         <v>6477072.7184431059</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3168,7 +3172,7 @@
         <v>6348060.5349847814</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3176,7 +3180,7 @@
         <v>6299941.6528902715</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3184,7 +3188,7 @@
         <v>6242653.2820588546</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3192,7 +3196,7 @@
         <v>6196108.3343148613</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3200,7 +3204,7 @@
         <v>6057440.5740416609</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3208,7 +3212,7 @@
         <v>5905360.2769009899</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3216,7 +3220,7 @@
         <v>5820427.1608535461</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3224,7 +3228,7 @@
         <v>5238112.832548718</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>5234857.0181046808</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3240,7 +3244,7 @@
         <v>4918263.9413765119</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3248,7 +3252,7 @@
         <v>4774823.975813143</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3256,7 +3260,7 @@
         <v>4585464.4257697621</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>4518803.0597778447</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3272,7 +3276,7 @@
         <v>4002433.2599057783</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3280,7 +3284,7 @@
         <v>3940135.7844622522</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3288,7 +3292,7 @@
         <v>3834852.0180053874</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>3828545.4156898735</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3304,7 +3308,7 @@
         <v>3817420.3331569401</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3312,7 +3316,7 @@
         <v>3707997.8425020711</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3320,7 +3324,7 @@
         <v>3619875.9647258641</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3328,7 +3332,7 @@
         <v>3528464.0286855474</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3336,7 +3340,7 @@
         <v>3498728.5690661999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -3344,7 +3348,7 @@
         <v>3410896.7005959461</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -3352,7 +3356,7 @@
         <v>3295938.5186260492</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>3290598.3127410077</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3368,7 +3372,7 @@
         <v>3156810.5485353768</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3376,7 +3380,7 @@
         <v>3088814.7726919409</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -3384,7 +3388,7 @@
         <v>2998168.7410817998</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -3392,7 +3396,7 @@
         <v>2870371.8091182248</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -3400,7 +3404,7 @@
         <v>2835102.2360062422</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -3408,7 +3412,7 @@
         <v>2834555.3846364394</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -3416,7 +3420,7 @@
         <v>2715330.8454035586</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>2712227.0632190984</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -3432,7 +3436,7 @@
         <v>2705604.9231179347</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -3440,7 +3444,7 @@
         <v>2615707.9729969818</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>2588604.2157336962</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>2537958.2344869296</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -3464,7 +3468,7 @@
         <v>2377129.8977390006</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -3472,7 +3476,7 @@
         <v>2315212.3012803812</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -3480,7 +3484,7 @@
         <v>2312082.4727558363</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -3488,7 +3492,7 @@
         <v>2274108.2527715652</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -3496,7 +3500,7 @@
         <v>2265990.2912413348</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -3504,7 +3508,7 @@
         <v>2249952.8765435675</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -3512,7 +3516,7 @@
         <v>2183295.7339643412</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>2173989.2025103439</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>2071319.8390201994</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -3536,7 +3540,7 @@
         <v>2057035.4882694683</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -3544,7 +3548,7 @@
         <v>2041132.6526135462</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3552,7 +3556,7 @@
         <v>1900071.8087391439</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>1884202.5368839712</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3568,7 +3572,7 @@
         <v>1846551.8135162094</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3576,7 +3580,7 @@
         <v>1784110.366541262</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3584,7 +3588,7 @@
         <v>1777960.142585838</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3592,7 +3596,7 @@
         <v>1763632.6148038909</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3600,7 +3604,7 @@
         <v>1759423.6724963852</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3608,7 +3612,7 @@
         <v>1629969.324864737</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3616,7 +3620,7 @@
         <v>1441638.1224292526</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3624,7 +3628,7 @@
         <v>1425713.8843400511</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>1417930.8868911781</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3640,7 +3644,7 @@
         <v>1377019.4685530765</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3648,7 +3652,7 @@
         <v>1362747.0822172933</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3656,7 +3660,7 @@
         <v>1346135.0229453188</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3664,7 +3668,7 @@
         <v>1339183.5841823146</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -3672,7 +3676,7 @@
         <v>1312464.3371778254</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>1300852.3849605797</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -3688,7 +3692,7 @@
         <v>1245952.2341153244</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3696,7 +3700,7 @@
         <v>1172098.1187596875</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3704,7 +3708,7 @@
         <v>1116825.5011415139</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -3712,7 +3716,7 @@
         <v>1090372.7146871882</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -3720,7 +3724,7 @@
         <v>1007381.3577786731</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3728,7 +3732,7 @@
         <v>1001592.1325569616</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -3736,7 +3740,7 @@
         <v>951180.13231306884</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3744,7 +3748,7 @@
         <v>948307.49232514191</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3752,7 +3756,7 @@
         <v>945413.04670340044</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>829087.54664389917</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -3768,7 +3772,7 @@
         <v>818653.77297121065</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3776,7 +3780,7 @@
         <v>783037.65077484073</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -3784,7 +3788,7 @@
         <v>736197.81899680488</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -3792,7 +3796,7 @@
         <v>734356.8614781237</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -3800,7 +3804,7 @@
         <v>677186.57694907149</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -3808,7 +3812,7 @@
         <v>676590.91815240472</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -3816,7 +3820,7 @@
         <v>616536.56359057885</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3824,7 +3828,7 @@
         <v>613121.84759638051</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -3832,7 +3836,7 @@
         <v>604004.22775246901</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -3840,7 +3844,7 @@
         <v>577962.60383226594</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -3848,7 +3852,7 @@
         <v>576437.25250804832</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -3856,7 +3860,7 @@
         <v>575932.49604445975</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -3864,7 +3868,7 @@
         <v>569649.01474504417</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -3872,7 +3876,7 @@
         <v>516146.94613065454</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -3880,7 +3884,7 @@
         <v>506462.9502737585</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -3888,7 +3892,7 @@
         <v>505062.37238582713</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -3896,7 +3900,7 @@
         <v>498705.71772100707</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>491868.56918791495</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -3912,7 +3916,7 @@
         <v>487483.12179108383</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>480083.99265128537</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -3928,7 +3932,7 @@
         <v>475663.09505783697</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -3936,7 +3940,7 @@
         <v>467791.01137677924</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -3944,7 +3948,7 @@
         <v>453398.52591398056</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -3952,7 +3956,7 @@
         <v>445531.62140938436</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -3960,7 +3964,7 @@
         <v>441940.66660020233</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -3968,7 +3972,7 @@
         <v>441308.9694957232</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3976,7 +3980,7 @@
         <v>439105.84145511012</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -3984,7 +3988,7 @@
         <v>436607.04035673605</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -3992,7 +3996,7 @@
         <v>417631.76844810823</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -4000,7 +4004,7 @@
         <v>413788.11969412625</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -4008,7 +4012,7 @@
         <v>413566.64137166546</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -4016,7 +4020,7 @@
         <v>404757.74207226897</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>398496.13287154946</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -4032,7 +4036,7 @@
         <v>380642.5047441636</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -4040,7 +4044,7 @@
         <v>375584.86637504486</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -4048,7 +4052,7 @@
         <v>371364.42900530255</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -4056,7 +4060,7 @@
         <v>365748.20642102952</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>358938.57077550411</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -4072,7 +4076,7 @@
         <v>358011.90429540334</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -4080,7 +4084,7 @@
         <v>354563.41245830106</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -4088,7 +4092,7 @@
         <v>354378.6282605548</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -4096,7 +4100,7 @@
         <v>353857.2989639981</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -4104,7 +4108,7 @@
         <v>351166.62711596076</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -4112,7 +4116,7 @@
         <v>341418.86377372389</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -4120,7 +4124,7 @@
         <v>340189.96075344243</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -4128,7 +4132,7 @@
         <v>335781.66269169602</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -4136,7 +4140,7 @@
         <v>327960.33238229743</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -4144,7 +4148,7 @@
         <v>325516.45119717054</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -4152,7 +4156,7 @@
         <v>312832.64158459986</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -4160,7 +4164,7 @@
         <v>312530.31852925906</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -4168,7 +4172,7 @@
         <v>312298.78650305746</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -4176,7 +4180,7 @@
         <v>312032.30601974548</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -4184,7 +4188,7 @@
         <v>303984.67889023636</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>295243.94998035056</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -4200,7 +4204,7 @@
         <v>292913.57419365633</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -4208,7 +4212,7 @@
         <v>292045.1111219505</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -4216,7 +4220,7 @@
         <v>288618.44767067221</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -4224,7 +4228,7 @@
         <v>278186.62979198882</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -4232,7 +4236,7 @@
         <v>274275.86477851123</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -4240,7 +4244,7 @@
         <v>270877.35847090709</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -4248,7 +4252,7 @@
         <v>270398.69553208735</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -4256,7 +4260,7 @@
         <v>269556.89962190622</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -4264,7 +4268,7 @@
         <v>266481.00657583791</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -4272,7 +4276,7 @@
         <v>261784.79459927609</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -4280,7 +4284,7 @@
         <v>252560.66260974261</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -4288,7 +4292,7 @@
         <v>251936.13006301926</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -4296,7 +4300,7 @@
         <v>245318.39947164862</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>243100.84956300023</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -4312,7 +4316,7 @@
         <v>230549.73246750192</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>227765.82870850663</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -4328,7 +4332,7 @@
         <v>224704.12397936394</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -4336,7 +4340,7 @@
         <v>221184.8096050001</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -4344,7 +4348,7 @@
         <v>214989.91604258993</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -4352,7 +4356,7 @@
         <v>204242.98147060024</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -4360,7 +4364,7 @@
         <v>202893.8705625787</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -4368,7 +4372,7 @@
         <v>201905.34578538616</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -4376,7 +4380,7 @@
         <v>197631.06947764824</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -4384,7 +4388,7 @@
         <v>195459.93747047795</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -4392,7 +4396,7 @@
         <v>186956.56245345183</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -4400,7 +4404,7 @@
         <v>185918.72903976991</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -4408,7 +4412,7 @@
         <v>185534.73365196172</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -4416,7 +4420,7 @@
         <v>179954.04998605355</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -4424,7 +4428,7 @@
         <v>179856.27595388464</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -4432,7 +4436,7 @@
         <v>179108.11320600822</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -4440,7 +4444,7 @@
         <v>178221.44336810726</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -4448,7 +4452,7 @@
         <v>177961.20797964538</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -4456,7 +4460,7 @@
         <v>171306.68135229326</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -4464,7 +4468,7 @@
         <v>168908.99916819099</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -4472,7 +4476,7 @@
         <v>167162.21163887443</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -4480,7 +4484,7 @@
         <v>162471.58451448628</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -4488,7 +4492,7 @@
         <v>161664.17410051631</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -4496,7 +4500,7 @@
         <v>161408.74418370883</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -4504,7 +4508,7 @@
         <v>161145.5906202365</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -4512,7 +4516,7 @@
         <v>160947.42698826734</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -4520,7 +4524,7 @@
         <v>158146.32350439398</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -4528,7 +4532,7 @@
         <v>156699.49913260556</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -4536,7 +4540,7 @@
         <v>155513.79905967001</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -4544,7 +4548,7 @@
         <v>152776.98547774355</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -4552,7 +4556,7 @@
         <v>152135.67076306135</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>151845.75507182718</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -4568,7 +4572,7 @@
         <v>148850.64732137247</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -4576,7 +4580,7 @@
         <v>142196.98803463994</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -4584,7 +4588,7 @@
         <v>138918.39993984325</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -4592,7 +4596,7 @@
         <v>138251.32388486384</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -4600,7 +4604,7 @@
         <v>137030.12691204017</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -4608,7 +4612,7 @@
         <v>136578.47983429211</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -4616,7 +4620,7 @@
         <v>136097.25029721032</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -4624,7 +4628,7 @@
         <v>131284.21064329287</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -4632,7 +4636,7 @@
         <v>130574.50013293438</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -4640,7 +4644,7 @@
         <v>128867.79246442251</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -4648,7 +4652,7 @@
         <v>128862.48484334006</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -4656,7 +4660,7 @@
         <v>127393.97483979954</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -4664,7 +4668,7 @@
         <v>122884.56121342273</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -4672,7 +4676,7 @@
         <v>122521.83316419605</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -4680,7 +4684,7 @@
         <v>121107.7940104396</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -4688,7 +4692,7 @@
         <v>120243.64848090717</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -4696,7 +4700,7 @@
         <v>120157.19065270039</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -4704,7 +4708,7 @@
         <v>118277.03073716379</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -4712,7 +4716,7 @@
         <v>117389.99818082913</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -4720,7 +4724,7 @@
         <v>115652.08978740248</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -4728,7 +4732,7 @@
         <v>114991.91275911542</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -4736,7 +4740,7 @@
         <v>114013.6532270233</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>113509.65239046313</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -4752,7 +4756,7 @@
         <v>112822.33821367119</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -4760,7 +4764,7 @@
         <v>111394.43324540286</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>109378.99172092615</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -4776,7 +4780,7 @@
         <v>108398.06253418498</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -4784,7 +4788,7 @@
         <v>108379.02923764659</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -4792,7 +4796,7 @@
         <v>108370.01339625756</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -4800,7 +4804,7 @@
         <v>107985.06841225756</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -4808,7 +4812,7 @@
         <v>107719.06560322078</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -4816,7 +4820,7 @@
         <v>105944.89865833163</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -4824,7 +4828,7 @@
         <v>104650.45986521045</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -4832,7 +4836,7 @@
         <v>103163.78619460858</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -4840,7 +4844,7 @@
         <v>102941.42596392962</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -4848,7 +4852,7 @@
         <v>101822.33961475006</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -4856,7 +4860,7 @@
         <v>101391.4883418462</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -4864,7 +4868,7 @@
         <v>101329.95048076472</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -4872,7 +4876,7 @@
         <v>99999.487998689292</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>99831.844410254329</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -4888,7 +4892,7 @@
         <v>99042.990665669829</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -4896,7 +4900,7 @@
         <v>97634.872045586599</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -4904,7 +4908,7 @@
         <v>97529.782367708496</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -4912,7 +4916,7 @@
         <v>96197.709951952362</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -4920,7 +4924,7 @@
         <v>96194.106190857157</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -4928,7 +4932,7 @@
         <v>95106.564791721496</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -4936,7 +4940,7 @@
         <v>95105.805106233471</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -4944,7 +4948,7 @@
         <v>94948.933643301207</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -4952,7 +4956,7 @@
         <v>94885.821143985624</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>93651.026964391203</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -4968,7 +4972,7 @@
         <v>93270.847715392592</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -4976,7 +4980,7 @@
         <v>93217.444719322943</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -4984,7 +4988,7 @@
         <v>93075.849755950199</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -4992,7 +4996,7 @@
         <v>92641.117908155211</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -5000,7 +5004,7 @@
         <v>90539.560727549411</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -5008,7 +5012,7 @@
         <v>88615.331334808972</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -5016,7 +5020,7 @@
         <v>88613.89787879998</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>88282.283613418156</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -5032,7 +5036,7 @@
         <v>88266.211756997145</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -5040,7 +5044,7 @@
         <v>87784.42105473073</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -5048,7 +5052,7 @@
         <v>86702.265342573344</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>84888.913643505104</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -5064,7 +5068,7 @@
         <v>84850.70714191247</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -5072,7 +5076,7 @@
         <v>84384.832760395933</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -5080,7 +5084,7 @@
         <v>84174.306687450851</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -5088,7 +5092,7 @@
         <v>84051.873903151703</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -5096,7 +5100,7 @@
         <v>82818.369564057546</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -5104,7 +5108,7 @@
         <v>81159.842286687606</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -5112,7 +5116,7 @@
         <v>80423.234671854458</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -5120,7 +5124,7 @@
         <v>80042.108591636395</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -5128,7 +5132,7 @@
         <v>79802.191358434473</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -5136,7 +5140,7 @@
         <v>77136.243102707464</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -5144,7 +5148,7 @@
         <v>76952.686888876575</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -5152,7 +5156,7 @@
         <v>76271.554872537949</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>76029.037555123941</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>75909.80937707494</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -5176,7 +5180,7 @@
         <v>75742.553345868902</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -5184,7 +5188,7 @@
         <v>75703.015804799594</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -5192,7 +5196,7 @@
         <v>75488.126218631282</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -5200,7 +5204,7 @@
         <v>74819.842156254061</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -5208,7 +5212,7 @@
         <v>74533.90915047421</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -5216,7 +5220,7 @@
         <v>73497.575320425778</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -5224,7 +5228,7 @@
         <v>73206.027933527992</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -5232,7 +5236,7 @@
         <v>72548.041007102715</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -5240,7 +5244,7 @@
         <v>72296.595638825631</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -5248,7 +5252,7 @@
         <v>72159.534249082542</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -5256,7 +5260,7 @@
         <v>72115.53779887667</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>300</v>
       </c>
@@ -5264,7 +5268,7 @@
         <v>70641.061037314561</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>301</v>
       </c>
@@ -5272,7 +5276,7 @@
         <v>70595.773244578915</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>302</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>70458.865210383519</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>303</v>
       </c>
@@ -5288,7 +5292,7 @@
         <v>70425.03356131741</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>304</v>
       </c>
@@ -5296,7 +5300,7 @@
         <v>68548.036684746388</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>305</v>
       </c>
@@ -5304,7 +5308,7 @@
         <v>68314.712910177695</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>306</v>
       </c>
@@ -5312,7 +5316,7 @@
         <v>67855.714010150608</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>307</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>66434.423337798929</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>308</v>
       </c>
@@ -5328,7 +5332,7 @@
         <v>65912.389708554707</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>309</v>
       </c>
@@ -5336,7 +5340,7 @@
         <v>65838.634492638099</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>310</v>
       </c>
@@ -5344,7 +5348,7 @@
         <v>65337.746002074324</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>311</v>
       </c>
@@ -5352,7 +5356,7 @@
         <v>64942.253684200608</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>312</v>
       </c>
@@ -5360,7 +5364,7 @@
         <v>64889.741219905867</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>313</v>
       </c>
@@ -5368,7 +5372,7 @@
         <v>64318.735635074372</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>314</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>64200.504528428566</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>315</v>
       </c>
@@ -5384,7 +5388,7 @@
         <v>64025.447196264999</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>316</v>
       </c>
@@ -5392,7 +5396,7 @@
         <v>63452.819740527739</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>317</v>
       </c>
@@ -5400,7 +5404,7 @@
         <v>63317.458817714753</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>318</v>
       </c>
@@ -5408,7 +5412,7 @@
         <v>63064.411517114699</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>319</v>
       </c>
@@ -5416,7 +5420,7 @@
         <v>62728.69990031112</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>320</v>
       </c>
@@ -5424,7 +5428,7 @@
         <v>62593.331078808966</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>321</v>
       </c>
@@ -5432,7 +5436,7 @@
         <v>61666.260702291336</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>322</v>
       </c>
@@ -5440,7 +5444,7 @@
         <v>60466.923741482344</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>323</v>
       </c>
@@ -5448,7 +5452,7 @@
         <v>59789.805080587554</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>324</v>
       </c>
@@ -5456,7 +5460,7 @@
         <v>59509.999159804989</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>325</v>
       </c>
@@ -5464,7 +5468,7 @@
         <v>58610.319057312714</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>326</v>
       </c>
@@ -5472,7 +5476,7 @@
         <v>58199.522901991288</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>327</v>
       </c>
@@ -5480,7 +5484,7 @@
         <v>57711.029598899106</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>328</v>
       </c>
@@ -5488,7 +5492,7 @@
         <v>57577.31553079615</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>329</v>
       </c>
@@ -5496,7 +5500,7 @@
         <v>57052.60730238368</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>330</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>56417.151272550283</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>331</v>
       </c>
@@ -5512,7 +5516,7 @@
         <v>56303.396666635002</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>332</v>
       </c>
@@ -5520,7 +5524,7 @@
         <v>56163.377028127339</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>333</v>
       </c>
@@ -5528,7 +5532,7 @@
         <v>56101.948018126488</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>334</v>
       </c>
@@ -5536,7 +5540,7 @@
         <v>55799.383316047344</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>335</v>
       </c>
@@ -5544,7 +5548,7 @@
         <v>55661.626116624189</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>336</v>
       </c>
@@ -5552,7 +5556,7 @@
         <v>55393.28153504261</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>337</v>
       </c>
@@ -5560,7 +5564,7 @@
         <v>55096.452900863369</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>338</v>
       </c>
@@ -5568,7 +5572,7 @@
         <v>54894.21338422456</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>339</v>
       </c>
@@ -5576,7 +5580,7 @@
         <v>54511.46668362536</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>340</v>
       </c>
@@ -5584,7 +5588,7 @@
         <v>54508.912299420968</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>341</v>
       </c>
@@ -5592,7 +5596,7 @@
         <v>54335.991755005307</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>342</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>54214.958973414432</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>343</v>
       </c>
@@ -5608,7 +5612,7 @@
         <v>54008.972566112257</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>344</v>
       </c>
@@ -5616,7 +5620,7 @@
         <v>53787.540252883518</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>345</v>
       </c>
@@ -5624,7 +5628,7 @@
         <v>53547.927625747325</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>346</v>
       </c>
@@ -5632,7 +5636,7 @@
         <v>53497.66350038103</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>347</v>
       </c>
@@ -5640,7 +5644,7 @@
         <v>53125.622693225116</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>348</v>
       </c>
@@ -5648,7 +5652,7 @@
         <v>53025.041254109354</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -5656,7 +5660,7 @@
         <v>52912.288067403599</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>350</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>52818.609453365534</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>351</v>
       </c>
@@ -5672,7 +5676,7 @@
         <v>52474.558969538979</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>352</v>
       </c>
@@ -5680,7 +5684,7 @@
         <v>51593.255071878571</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>353</v>
       </c>
@@ -5688,7 +5692,7 @@
         <v>51314.715687146083</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>354</v>
       </c>
@@ -5696,7 +5700,7 @@
         <v>51195.2466999772</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>355</v>
       </c>
@@ -5704,7 +5708,7 @@
         <v>51107.131395302371</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>356</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>50914.043843178588</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>357</v>
       </c>
@@ -5720,7 +5724,7 @@
         <v>50345.171875863023</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>358</v>
       </c>
@@ -5728,7 +5732,7 @@
         <v>49607.996769321871</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>359</v>
       </c>
@@ -5736,7 +5740,7 @@
         <v>49410.274100426257</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>360</v>
       </c>
@@ -5744,7 +5748,7 @@
         <v>49122.296363260524</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>361</v>
       </c>
@@ -5752,7 +5756,7 @@
         <v>49048.267886025671</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>362</v>
       </c>
@@ -5760,7 +5764,7 @@
         <v>48461.870420108578</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>363</v>
       </c>
@@ -5768,7 +5772,7 @@
         <v>48342.114144915089</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>364</v>
       </c>
@@ -5776,7 +5780,7 @@
         <v>48272.410092051599</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>365</v>
       </c>
@@ -5784,7 +5788,7 @@
         <v>48239.636885500244</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>366</v>
       </c>
@@ -5792,7 +5796,7 @@
         <v>47376.620511841036</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>367</v>
       </c>
@@ -5800,7 +5804,7 @@
         <v>47147.494424726137</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>368</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>47049.276867785207</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>369</v>
       </c>
@@ -5816,7 +5820,7 @@
         <v>46893.400949723975</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>370</v>
       </c>
@@ -5824,7 +5828,7 @@
         <v>46871.846560595353</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>371</v>
       </c>
@@ -5832,7 +5836,7 @@
         <v>46758.530816115526</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>372</v>
       </c>
@@ -5840,7 +5844,7 @@
         <v>46546.231413163594</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>373</v>
       </c>
@@ -5848,7 +5852,7 @@
         <v>45006.443873635239</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>374</v>
       </c>
@@ -5856,7 +5860,7 @@
         <v>44994.37843572937</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>375</v>
       </c>
@@ -5864,7 +5868,7 @@
         <v>44779.042577149943</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>376</v>
       </c>
@@ -5872,7 +5876,7 @@
         <v>44758.031452741809</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>377</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>44508.568218820001</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>378</v>
       </c>
@@ -5888,7 +5892,7 @@
         <v>44415.126113969476</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>379</v>
       </c>
@@ -5896,7 +5900,7 @@
         <v>44244.999717482176</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>380</v>
       </c>
@@ -5904,7 +5908,7 @@
         <v>44100.523036302817</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>381</v>
       </c>
@@ -5912,7 +5916,7 @@
         <v>43839.708028224799</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>382</v>
       </c>
@@ -5920,7 +5924,7 @@
         <v>43828.892809157987</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>383</v>
       </c>
@@ -5928,7 +5932,7 @@
         <v>43421.598526046997</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>384</v>
       </c>
@@ -5936,7 +5940,7 @@
         <v>43315.124379366607</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>385</v>
       </c>
@@ -5944,7 +5948,7 @@
         <v>43164.451473199209</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>386</v>
       </c>
@@ -5952,7 +5956,7 @@
         <v>43081.318457076042</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>387</v>
       </c>
@@ -5960,7 +5964,7 @@
         <v>42872.994812708428</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>388</v>
       </c>
@@ -5968,7 +5972,7 @@
         <v>42848.570571257078</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>389</v>
       </c>
@@ -5976,7 +5980,7 @@
         <v>42841.961504114865</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>390</v>
       </c>
@@ -5984,7 +5988,7 @@
         <v>42841.929621261377</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>391</v>
       </c>
@@ -5992,7 +5996,7 @@
         <v>42292.731651894377</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>392</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>42198.278182654765</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>393</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>41917.505380856528</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>394</v>
       </c>
@@ -6016,7 +6020,7 @@
         <v>41909.903364240738</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>395</v>
       </c>
@@ -6024,7 +6028,7 @@
         <v>41732.196203890402</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>396</v>
       </c>
@@ -6032,7 +6036,7 @@
         <v>41319.051295982063</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>397</v>
       </c>
@@ -6040,7 +6044,7 @@
         <v>40894.131608337186</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>398</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>40736.836970531192</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>399</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>40704.031517998083</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>400</v>
       </c>
@@ -6064,7 +6068,7 @@
         <v>40583.247775406096</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>401</v>
       </c>
@@ -6072,7 +6076,7 @@
         <v>40267.853183401763</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>402</v>
       </c>
@@ -6080,7 +6084,7 @@
         <v>39822.137456180666</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>403</v>
       </c>
@@ -6088,7 +6092,7 @@
         <v>39708.242510579243</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>404</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>39680.747766913402</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>405</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>39680.197917804195</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>406</v>
       </c>
@@ -6112,7 +6116,7 @@
         <v>39507.703405570945</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>407</v>
       </c>
@@ -6120,7 +6124,7 @@
         <v>39457.743422321255</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>408</v>
       </c>
@@ -6128,7 +6132,7 @@
         <v>39378.974546877624</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>409</v>
       </c>
@@ -6136,7 +6140,7 @@
         <v>39130.550724465895</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>410</v>
       </c>
@@ -6144,7 +6148,7 @@
         <v>38994.230342449373</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>411</v>
       </c>
@@ -6152,7 +6156,7 @@
         <v>38973.067623680792</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>412</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>38835.298119108091</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>413</v>
       </c>
@@ -6168,7 +6172,7 @@
         <v>38477.266015141962</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>414</v>
       </c>
@@ -6176,7 +6180,7 @@
         <v>38427.75589796745</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>415</v>
       </c>
@@ -6184,7 +6188,7 @@
         <v>38398.046825326957</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>416</v>
       </c>
@@ -6192,7 +6196,7 @@
         <v>38294.573774450058</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>417</v>
       </c>
@@ -6200,7 +6204,7 @@
         <v>38212.161562177374</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>418</v>
       </c>
@@ -6208,7 +6212,7 @@
         <v>37974.201769095831</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>419</v>
       </c>
@@ -6216,7 +6220,7 @@
         <v>37944.433056773967</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>420</v>
       </c>
@@ -6224,7 +6228,7 @@
         <v>37887.711523051461</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>421</v>
       </c>
@@ -6232,7 +6236,7 @@
         <v>37768.753811567098</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>422</v>
       </c>
@@ -6240,7 +6244,7 @@
         <v>37356.525534369481</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>423</v>
       </c>
@@ -6248,7 +6252,7 @@
         <v>37220.127177091003</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>424</v>
       </c>
@@ -6256,7 +6260,7 @@
         <v>37019.994597514473</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>425</v>
       </c>
@@ -6264,7 +6268,7 @@
         <v>37002.508841307092</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>426</v>
       </c>
@@ -6272,7 +6276,7 @@
         <v>36863.98271767667</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>427</v>
       </c>
@@ -6280,7 +6284,7 @@
         <v>36762.063183741528</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>428</v>
       </c>
@@ -6288,7 +6292,7 @@
         <v>36464.541766365379</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>429</v>
       </c>
@@ -6296,7 +6300,7 @@
         <v>36090.444586589627</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>430</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>36042.055364430198</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>431</v>
       </c>
@@ -6312,7 +6316,7 @@
         <v>35943.705985888548</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>432</v>
       </c>
@@ -6320,7 +6324,7 @@
         <v>35865.164156880739</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>433</v>
       </c>
@@ -6328,7 +6332,7 @@
         <v>35793.898153983806</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>434</v>
       </c>
@@ -6336,7 +6340,7 @@
         <v>35541.617867790854</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>435</v>
       </c>
@@ -6344,7 +6348,7 @@
         <v>35494.128000888435</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>436</v>
       </c>
@@ -6352,7 +6356,7 @@
         <v>35462.656414882396</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>437</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>35440.090293338719</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>438</v>
       </c>
@@ -6368,7 +6372,7 @@
         <v>35304.535754881057</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>439</v>
       </c>
@@ -6376,7 +6380,7 @@
         <v>35210.62901886928</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>440</v>
       </c>
@@ -6384,7 +6388,7 @@
         <v>34863.094988208657</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>441</v>
       </c>
@@ -6392,7 +6396,7 @@
         <v>34571.502470241903</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>442</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>34552.443769155041</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>443</v>
       </c>
@@ -6408,7 +6412,7 @@
         <v>34139.420030223118</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>444</v>
       </c>
@@ -6416,7 +6420,7 @@
         <v>33999.4117596172</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>445</v>
       </c>
@@ -6424,7 +6428,7 @@
         <v>33969.218875337334</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>446</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>33952.172242729976</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>447</v>
       </c>
@@ -6440,7 +6444,7 @@
         <v>33723.872951424608</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>448</v>
       </c>
@@ -6448,7 +6452,7 @@
         <v>33705.272640939424</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>449</v>
       </c>
@@ -6456,7 +6460,7 @@
         <v>33163.644550693272</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>450</v>
       </c>
@@ -6464,7 +6468,7 @@
         <v>33132.693956794159</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>451</v>
       </c>
@@ -6472,7 +6476,7 @@
         <v>33090.330914029852</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>452</v>
       </c>
@@ -6480,7 +6484,7 @@
         <v>33055.582829524203</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>453</v>
       </c>
@@ -6488,7 +6492,7 @@
         <v>33011.682772474975</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>454</v>
       </c>
@@ -6496,7 +6500,7 @@
         <v>32962.526138781257</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>455</v>
       </c>
@@ -6504,7 +6508,7 @@
         <v>32959.748178649657</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>456</v>
       </c>
@@ -6512,7 +6516,7 @@
         <v>32774.38023822882</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>457</v>
       </c>
@@ -6520,7 +6524,7 @@
         <v>32750.21986809326</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>458</v>
       </c>
@@ -6528,7 +6532,7 @@
         <v>32648.649905969829</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>459</v>
       </c>
@@ -6536,7 +6540,7 @@
         <v>32596.956034660965</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>460</v>
       </c>
@@ -6544,7 +6548,7 @@
         <v>32549.529566492951</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>461</v>
       </c>
@@ -6552,7 +6556,7 @@
         <v>32414.353279179617</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>462</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>31943.23089482338</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>463</v>
       </c>
@@ -6568,7 +6572,7 @@
         <v>31780.497164141463</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>464</v>
       </c>
@@ -6576,7 +6580,7 @@
         <v>31730.068825836239</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>465</v>
       </c>
@@ -6584,7 +6588,7 @@
         <v>31694.874228430403</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>466</v>
       </c>
@@ -6592,7 +6596,7 @@
         <v>31527.996951367317</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>467</v>
       </c>
@@ -6600,7 +6604,7 @@
         <v>31289.861264579849</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>468</v>
       </c>
@@ -6608,7 +6612,7 @@
         <v>31210.267048373182</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>469</v>
       </c>
@@ -6616,7 +6620,7 @@
         <v>31033.469416099779</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>470</v>
       </c>
@@ -6624,7 +6628,7 @@
         <v>30938.851465593023</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>471</v>
       </c>
@@ -6632,7 +6636,7 @@
         <v>30788.776167039799</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>472</v>
       </c>
@@ -6640,7 +6644,7 @@
         <v>30704.893746762868</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>473</v>
       </c>
@@ -6648,7 +6652,7 @@
         <v>30530.83382166292</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>474</v>
       </c>
@@ -6656,7 +6660,7 @@
         <v>30506.360557489417</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>475</v>
       </c>
@@ -6664,7 +6668,7 @@
         <v>30495.802495577111</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>476</v>
       </c>
@@ -6672,7 +6676,7 @@
         <v>30286.63071389751</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>477</v>
       </c>
@@ -6680,7 +6684,7 @@
         <v>30215.173254328376</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>478</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>30199.935779339528</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>479</v>
       </c>
@@ -6696,7 +6700,7 @@
         <v>30032.609461516364</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>480</v>
       </c>
@@ -6704,7 +6708,7 @@
         <v>29886.581200416003</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>481</v>
       </c>
@@ -6712,7 +6716,7 @@
         <v>29692.938356371767</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>482</v>
       </c>
@@ -6720,7 +6724,7 @@
         <v>29547.467520574966</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>483</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>29349.787052038362</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>484</v>
       </c>
@@ -6736,7 +6740,7 @@
         <v>29257.146397419267</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>485</v>
       </c>
@@ -6744,7 +6748,7 @@
         <v>29128.009395984274</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>486</v>
       </c>
@@ -6752,7 +6756,7 @@
         <v>28945.645587802832</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>487</v>
       </c>
@@ -6760,7 +6764,7 @@
         <v>28815.0333960713</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>488</v>
       </c>
@@ -6768,7 +6772,7 @@
         <v>28758.695015960086</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>489</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>28296.289509403869</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>490</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>28276.785329876118</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>491</v>
       </c>
@@ -6792,7 +6796,7 @@
         <v>28158.540952461059</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>492</v>
       </c>
@@ -6800,7 +6804,7 @@
         <v>28067.428104660848</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>493</v>
       </c>
@@ -6808,7 +6812,7 @@
         <v>27911.288039071223</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>494</v>
       </c>
@@ -6816,7 +6820,7 @@
         <v>27734.122276746672</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>495</v>
       </c>
@@ -6824,7 +6828,7 @@
         <v>27559.027559041348</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>496</v>
       </c>
@@ -6832,7 +6836,7 @@
         <v>27540.800573014021</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>497</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>27380.65010185113</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>498</v>
       </c>
@@ -6848,7 +6852,7 @@
         <v>27317.309305163213</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>499</v>
       </c>
@@ -6856,7 +6860,7 @@
         <v>27092.445145124992</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>500</v>
       </c>
@@ -6864,7 +6868,7 @@
         <v>27088.189308257552</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>501</v>
       </c>
@@ -6872,7 +6876,7 @@
         <v>27072.514209822217</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>502</v>
       </c>
@@ -6880,7 +6884,7 @@
         <v>26986.686532436699</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>503</v>
       </c>
@@ -6888,7 +6892,7 @@
         <v>26816.429780059552</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>504</v>
       </c>
@@ -6896,7 +6900,7 @@
         <v>26801.138035538708</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>505</v>
       </c>
@@ -6904,7 +6908,7 @@
         <v>26795.969498670678</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>506</v>
       </c>
@@ -6912,7 +6916,7 @@
         <v>26633.264336741908</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>507</v>
       </c>
@@ -6920,7 +6924,7 @@
         <v>26564.531609321515</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>508</v>
       </c>
@@ -6928,7 +6932,7 @@
         <v>26563.132345414408</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>509</v>
       </c>
@@ -6936,7 +6940,7 @@
         <v>26563.132345414408</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>510</v>
       </c>
@@ -6944,7 +6948,7 @@
         <v>26486.222833767737</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>511</v>
       </c>
@@ -6952,7 +6956,7 @@
         <v>26387.686522315664</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>512</v>
       </c>
@@ -6960,7 +6964,7 @@
         <v>26368.583254302743</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>513</v>
       </c>
@@ -6968,7 +6972,7 @@
         <v>26276.986128549819</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>514</v>
       </c>
@@ -6976,7 +6980,7 @@
         <v>26173.485411113037</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>515</v>
       </c>
@@ -6984,7 +6988,7 @@
         <v>26022.413416130348</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>516</v>
       </c>
@@ -6992,7 +6996,7 @@
         <v>25978.837541352812</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>517</v>
       </c>
@@ -7000,7 +7004,7 @@
         <v>25936.460822556324</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>518</v>
       </c>
@@ -7008,7 +7012,7 @@
         <v>25901.534405505132</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>519</v>
       </c>
@@ -7016,7 +7020,7 @@
         <v>25897.648062758162</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>520</v>
       </c>
@@ -7024,7 +7028,7 @@
         <v>25844.65404635189</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>521</v>
       </c>
@@ -7032,7 +7036,7 @@
         <v>25619.165266637327</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>522</v>
       </c>
@@ -7040,7 +7044,7 @@
         <v>25619.036803302635</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>523</v>
       </c>
@@ -7048,7 +7052,7 @@
         <v>25617.112507110764</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>524</v>
       </c>
@@ -7056,7 +7060,7 @@
         <v>25591.761668672294</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>525</v>
       </c>
@@ -7064,7 +7068,7 @@
         <v>25346.217592939913</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>526</v>
       </c>
@@ -7072,7 +7076,7 @@
         <v>25329.133679738406</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>527</v>
       </c>
@@ -7080,7 +7084,7 @@
         <v>25266.578715766009</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>528</v>
       </c>
@@ -7088,7 +7092,7 @@
         <v>25256.273257212255</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>529</v>
       </c>
@@ -7096,7 +7100,7 @@
         <v>25103.481731247099</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>530</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>24869.861278262128</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>531</v>
       </c>
@@ -7112,7 +7116,7 @@
         <v>24824.232969131579</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>532</v>
       </c>
@@ -7120,7 +7124,7 @@
         <v>24798.554062325671</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>533</v>
       </c>
@@ -7128,7 +7132,7 @@
         <v>24672.028696481368</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>534</v>
       </c>
@@ -7136,7 +7140,7 @@
         <v>24627.423738588644</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>535</v>
       </c>
@@ -7144,7 +7148,7 @@
         <v>24545.441849686271</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>536</v>
       </c>
@@ -7152,7 +7156,7 @@
         <v>24140.935620879296</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>537</v>
       </c>
@@ -7160,7 +7164,7 @@
         <v>24084.330813993078</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>538</v>
       </c>
@@ -7168,7 +7172,7 @@
         <v>24021.157340977552</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>539</v>
       </c>
@@ -7176,7 +7180,7 @@
         <v>23997.916576236337</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>540</v>
       </c>
@@ -7184,7 +7188,7 @@
         <v>23974.986965585606</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>541</v>
       </c>
@@ -7192,7 +7196,7 @@
         <v>23916.521486202812</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>542</v>
       </c>
@@ -7200,7 +7204,7 @@
         <v>23907.066373368467</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>543</v>
       </c>
@@ -7208,7 +7212,7 @@
         <v>23752.894560453016</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>544</v>
       </c>
@@ -7216,7 +7220,7 @@
         <v>23726.485740828866</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>545</v>
       </c>
@@ -7224,7 +7228,7 @@
         <v>23688.820334236054</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>546</v>
       </c>
@@ -7232,7 +7236,7 @@
         <v>23622.028314538074</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>547</v>
       </c>
@@ -7240,7 +7244,7 @@
         <v>23341.807984815565</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>548</v>
       </c>
@@ -7248,7 +7252,7 @@
         <v>23330.666514268301</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>549</v>
       </c>
@@ -7256,7 +7260,7 @@
         <v>23198.260804375514</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>550</v>
       </c>
@@ -7264,7 +7268,7 @@
         <v>22934.900927135441</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>551</v>
       </c>
@@ -7272,7 +7276,7 @@
         <v>22869.455847553734</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>552</v>
       </c>
@@ -7280,7 +7284,7 @@
         <v>22775.915471861819</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>553</v>
       </c>
@@ -7288,7 +7292,7 @@
         <v>22762.554213064504</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>554</v>
       </c>
@@ -7296,7 +7300,7 @@
         <v>22628.588658848326</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>555</v>
       </c>
@@ -7304,7 +7308,7 @@
         <v>22461.357305313722</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>556</v>
       </c>
@@ -7312,7 +7316,7 @@
         <v>22457.714895628465</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>557</v>
       </c>
@@ -7320,7 +7324,7 @@
         <v>22304.708023195486</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>558</v>
       </c>
@@ -7328,7 +7332,7 @@
         <v>22295.324937854271</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>559</v>
       </c>
@@ -7336,7 +7340,7 @@
         <v>22190.608544035284</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>560</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>21952.676374419592</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>561</v>
       </c>
@@ -7352,7 +7356,7 @@
         <v>21930.800258996474</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>562</v>
       </c>
@@ -7360,7 +7364,7 @@
         <v>21906.163516234406</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>563</v>
       </c>
@@ -7368,7 +7372,7 @@
         <v>21744.786609227722</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>564</v>
       </c>
@@ -7376,7 +7380,7 @@
         <v>21703.080198451778</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>565</v>
       </c>
@@ -7384,7 +7388,7 @@
         <v>21653.133302554219</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>566</v>
       </c>
@@ -7392,7 +7396,7 @@
         <v>21635.61878015046</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>567</v>
       </c>
@@ -7400,7 +7404,7 @@
         <v>21575.431221405262</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>568</v>
       </c>
@@ -7408,7 +7412,7 @@
         <v>21507.208094032114</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>569</v>
       </c>
@@ -7416,7 +7420,7 @@
         <v>21476.731594914512</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>570</v>
       </c>
@@ -7424,7 +7428,7 @@
         <v>21439.020009024818</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>571</v>
       </c>
@@ -7432,7 +7436,7 @@
         <v>21423.235049823819</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>572</v>
       </c>
@@ -7440,7 +7444,7 @@
         <v>21194.102953416084</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>573</v>
       </c>
@@ -7448,7 +7452,7 @@
         <v>21142.26652850314</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>574</v>
       </c>
@@ -7456,7 +7460,7 @@
         <v>21070.535724754518</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>575</v>
       </c>
@@ -7464,7 +7468,7 @@
         <v>21014.456687856731</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>576</v>
       </c>
@@ -7472,7 +7476,7 @@
         <v>21009.712039911443</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>577</v>
       </c>
@@ -7480,7 +7484,7 @@
         <v>20719.555979798432</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>578</v>
       </c>
@@ -7488,7 +7492,7 @@
         <v>20657.059453444945</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>579</v>
       </c>
@@ -7496,7 +7500,7 @@
         <v>20646.743084564212</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>580</v>
       </c>
@@ -7504,7 +7508,7 @@
         <v>20604.618989890201</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>581</v>
       </c>
@@ -7512,7 +7516,7 @@
         <v>20598.248097629097</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>582</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>20569.880894161746</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>583</v>
       </c>
@@ -7528,7 +7532,7 @@
         <v>20549.695861496355</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>584</v>
       </c>
@@ -7536,7 +7540,7 @@
         <v>20497.251003068817</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>585</v>
       </c>
@@ -7544,7 +7548,7 @@
         <v>20437.465596301336</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>586</v>
       </c>
@@ -7552,7 +7556,7 @@
         <v>20370.567002417974</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>587</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>20357.972002652543</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>588</v>
       </c>
@@ -7568,7 +7572,7 @@
         <v>20329.289215316894</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>589</v>
       </c>
@@ -7576,7 +7580,7 @@
         <v>20322.956985762663</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>590</v>
       </c>
@@ -7584,7 +7588,7 @@
         <v>20306.43718101074</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>591</v>
       </c>
@@ -7592,7 +7596,7 @@
         <v>20264.223659054915</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>592</v>
       </c>
@@ -7600,7 +7604,7 @@
         <v>20134.770834052011</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>593</v>
       </c>
@@ -7608,7 +7612,7 @@
         <v>20072.328902074161</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>594</v>
       </c>
@@ -7616,7 +7620,7 @@
         <v>20058.126090833557</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>595</v>
       </c>
@@ -7624,7 +7628,7 @@
         <v>20010.311916929742</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>596</v>
       </c>
@@ -7632,7 +7636,7 @@
         <v>19981.00878659193</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>597</v>
       </c>
@@ -7640,7 +7644,7 @@
         <v>19945.124717584502</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>598</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>19943.87185807604</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>599</v>
       </c>
@@ -7656,7 +7660,7 @@
         <v>19937.900233300232</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>600</v>
       </c>
@@ -7664,7 +7668,7 @@
         <v>19929.651979836075</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>601</v>
       </c>
@@ -7672,7 +7676,7 @@
         <v>19923.353131438485</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>602</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>19894.286617016434</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>603</v>
       </c>
@@ -7688,7 +7692,7 @@
         <v>19883.495509219658</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>604</v>
       </c>
@@ -7696,7 +7700,7 @@
         <v>19818.815023552121</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>605</v>
       </c>
@@ -7704,7 +7708,7 @@
         <v>19771.949827975997</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>606</v>
       </c>
@@ -7712,7 +7716,7 @@
         <v>19698.340422091791</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>607</v>
       </c>
@@ -7720,7 +7724,7 @@
         <v>19645.228887710673</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>608</v>
       </c>
@@ -7728,7 +7732,7 @@
         <v>19581.417591523292</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>609</v>
       </c>
@@ -7736,7 +7740,7 @@
         <v>19571.753897908067</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>610</v>
       </c>
@@ -7744,7 +7748,7 @@
         <v>19495.855254207832</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>611</v>
       </c>
@@ -7752,7 +7756,7 @@
         <v>19463.330404850622</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>612</v>
       </c>
@@ -7760,7 +7764,7 @@
         <v>19398.195792392664</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>613</v>
       </c>
@@ -7768,7 +7772,7 @@
         <v>19359.699496701603</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>614</v>
       </c>
@@ -7776,7 +7780,7 @@
         <v>19316.650848426063</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>615</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>19277.164938089671</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>616</v>
       </c>
@@ -7792,7 +7796,7 @@
         <v>19170.69783061108</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>617</v>
       </c>
@@ -7800,7 +7804,7 @@
         <v>19132.01505330791</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>618</v>
       </c>
@@ -7808,7 +7812,7 @@
         <v>19039.551950125762</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>619</v>
       </c>
@@ -7816,7 +7820,7 @@
         <v>18948.57748321793</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>620</v>
       </c>
@@ -7824,7 +7828,7 @@
         <v>18947.585598170521</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>621</v>
       </c>
@@ -7832,7 +7836,7 @@
         <v>18935.213399947435</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>622</v>
       </c>
@@ -7840,7 +7844,7 @@
         <v>18928.391373806706</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>623</v>
       </c>
@@ -7848,7 +7852,7 @@
         <v>18859.904559673665</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>624</v>
       </c>
@@ -7856,7 +7860,7 @@
         <v>18786.128015546583</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>625</v>
       </c>
@@ -7864,7 +7868,7 @@
         <v>18564.871531189106</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>626</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>18552.866945757771</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>627</v>
       </c>
@@ -7880,7 +7884,7 @@
         <v>18473.76518200877</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>628</v>
       </c>
@@ -7888,7 +7892,7 @@
         <v>18365.13000226246</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>629</v>
       </c>
@@ -7896,7 +7900,7 @@
         <v>18299.726773916591</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>630</v>
       </c>
@@ -7904,7 +7908,7 @@
         <v>18248.431237313274</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>631</v>
       </c>
@@ -7912,7 +7916,7 @@
         <v>18142.364337345727</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>632</v>
       </c>
@@ -7920,7 +7924,7 @@
         <v>18138.713034902099</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>633</v>
       </c>
@@ -7928,7 +7932,7 @@
         <v>18098.589651362941</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>634</v>
       </c>
@@ -7936,7 +7940,7 @@
         <v>18011.135444496558</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>635</v>
       </c>
@@ -7944,7 +7948,7 @@
         <v>17791.486238264828</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>636</v>
       </c>
@@ -7952,7 +7956,7 @@
         <v>17718.980868051447</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>637</v>
       </c>
@@ -7960,7 +7964,7 @@
         <v>17711.295830627416</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>638</v>
       </c>
@@ -7968,7 +7972,7 @@
         <v>17689.701255329503</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>639</v>
       </c>
@@ -7976,7 +7980,7 @@
         <v>17649.362594722799</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>640</v>
       </c>
@@ -7984,7 +7988,7 @@
         <v>17643.809112547086</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>641</v>
       </c>
@@ -7992,7 +7996,7 @@
         <v>17639.172093861525</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>642</v>
       </c>
@@ -8000,7 +8004,7 @@
         <v>17409.696846506642</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>643</v>
       </c>
@@ -8008,7 +8012,7 @@
         <v>17399.179273573205</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>644</v>
       </c>
@@ -8016,7 +8020,7 @@
         <v>17386.162636987123</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>645</v>
       </c>
@@ -8024,7 +8028,7 @@
         <v>17352.821734910682</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>646</v>
       </c>
@@ -8032,7 +8036,7 @@
         <v>17321.010376660608</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>647</v>
       </c>
@@ -8040,7 +8044,7 @@
         <v>17206.62001997629</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>648</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>17194.421832147156</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>649</v>
       </c>
@@ -8056,7 +8060,7 @@
         <v>17176.688388741986</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>650</v>
       </c>
@@ -8064,7 +8068,7 @@
         <v>17176.100401429907</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>651</v>
       </c>
@@ -8072,7 +8076,7 @@
         <v>17168.742361795586</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>652</v>
       </c>
@@ -8080,7 +8084,7 @@
         <v>17153.199869831245</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>653</v>
       </c>
@@ -8088,7 +8092,7 @@
         <v>17112.054578817722</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>654</v>
       </c>
@@ -8096,7 +8100,7 @@
         <v>17029.279691392963</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>655</v>
       </c>
@@ -8104,7 +8108,7 @@
         <v>16964.713882865457</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>656</v>
       </c>
@@ -8112,7 +8116,7 @@
         <v>16940.908380810179</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>657</v>
       </c>
@@ -8120,7 +8124,7 @@
         <v>16884.15351366729</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>658</v>
       </c>
@@ -8128,7 +8132,7 @@
         <v>16830.098351653061</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>659</v>
       </c>
@@ -8136,7 +8140,7 @@
         <v>16781.084887455872</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>660</v>
       </c>
@@ -8144,7 +8148,7 @@
         <v>16772.68723107603</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>661</v>
       </c>
@@ -8152,7 +8156,7 @@
         <v>16763.553040042429</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>662</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>16741.767355734832</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>663</v>
       </c>
@@ -8168,7 +8172,7 @@
         <v>16643.411778737332</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>664</v>
       </c>
@@ -8176,7 +8180,7 @@
         <v>16623.592210819879</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>665</v>
       </c>
@@ -8184,7 +8188,7 @@
         <v>16607.106912403498</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>666</v>
       </c>
@@ -8192,7 +8196,7 @@
         <v>16579.466510048944</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>667</v>
       </c>
@@ -8200,7 +8204,7 @@
         <v>16556.525514412002</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>668</v>
       </c>
@@ -8208,7 +8212,7 @@
         <v>16519.508805846519</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>669</v>
       </c>
@@ -8216,7 +8220,7 @@
         <v>16515.811162296086</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>670</v>
       </c>
@@ -8224,7 +8228,7 @@
         <v>16494.84853672512</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>671</v>
       </c>
@@ -8232,7 +8236,7 @@
         <v>16487.72905230811</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>672</v>
       </c>
@@ -8240,7 +8244,7 @@
         <v>16486.731538802102</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>673</v>
       </c>
@@ -8248,7 +8252,7 @@
         <v>16470.653727479254</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>674</v>
       </c>
@@ -8256,7 +8260,7 @@
         <v>16411.310594932245</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>675</v>
       </c>
@@ -8264,7 +8268,7 @@
         <v>16210.0714961547</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>676</v>
       </c>
@@ -8272,7 +8276,7 @@
         <v>16206.66529548877</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>677</v>
       </c>
@@ -8280,7 +8284,7 @@
         <v>16193.142215927472</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>678</v>
       </c>
@@ -8288,7 +8292,7 @@
         <v>16147.414056080657</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>679</v>
       </c>
@@ -8296,7 +8300,7 @@
         <v>16140.631957888138</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>680</v>
       </c>
@@ -8304,7 +8308,7 @@
         <v>16098.447130080591</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>681</v>
       </c>
@@ -8312,7 +8316,7 @@
         <v>16086.519562830501</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>682</v>
       </c>
@@ -8320,7 +8324,7 @@
         <v>16043.690348545102</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>683</v>
       </c>
@@ -8328,7 +8332,7 @@
         <v>16034.650407799243</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>684</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>15929.532322073999</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>685</v>
       </c>
@@ -8344,7 +8348,7 @@
         <v>15892.060839212065</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>686</v>
       </c>
@@ -8352,7 +8356,7 @@
         <v>15880.876479660606</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>687</v>
       </c>
@@ -8360,7 +8364,7 @@
         <v>15874.507866387547</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>688</v>
       </c>
@@ -8368,7 +8372,7 @@
         <v>15859.715700964902</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>689</v>
       </c>
@@ -8376,7 +8380,7 @@
         <v>15728.254830082073</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>690</v>
       </c>
@@ -8384,7 +8388,7 @@
         <v>15579.473675320356</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>691</v>
       </c>
@@ -8392,7 +8396,7 @@
         <v>15539.248099499442</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>692</v>
       </c>
@@ -8400,7 +8404,7 @@
         <v>15464.572415686107</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>693</v>
       </c>
@@ -8408,7 +8412,7 @@
         <v>15404.283862807994</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>694</v>
       </c>
@@ -8416,7 +8420,7 @@
         <v>15400.649336959777</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>695</v>
       </c>
@@ -8424,7 +8428,7 @@
         <v>15400.605255776594</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>696</v>
       </c>
@@ -8432,7 +8436,7 @@
         <v>15295.801688560636</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>697</v>
       </c>
@@ -8440,7 +8444,7 @@
         <v>15272.196960489991</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>698</v>
       </c>
@@ -8448,7 +8452,7 @@
         <v>15224.510313494955</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>699</v>
       </c>
@@ -8456,7 +8460,7 @@
         <v>15171.677866878323</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>700</v>
       </c>
@@ -8464,7 +8468,7 @@
         <v>15056.689201344445</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>701</v>
       </c>
@@ -8472,7 +8476,7 @@
         <v>15020.985320544065</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>702</v>
       </c>
@@ -8480,7 +8484,7 @@
         <v>14975.98076921842</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>703</v>
       </c>
@@ -8488,7 +8492,7 @@
         <v>14920.288200969833</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>704</v>
       </c>
@@ -8496,7 +8500,7 @@
         <v>14917.978597405197</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>705</v>
       </c>
@@ -8504,7 +8508,7 @@
         <v>14852.070562719531</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>706</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>14848.398349063995</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>707</v>
       </c>
@@ -8520,7 +8524,7 @@
         <v>14826.470241429563</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>708</v>
       </c>
@@ -8528,7 +8532,7 @@
         <v>14789.726163793555</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>709</v>
       </c>
@@ -8536,7 +8540,7 @@
         <v>14775.794817876971</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>710</v>
       </c>
@@ -8544,7 +8548,7 @@
         <v>14775.510321581383</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>711</v>
       </c>
@@ -8552,7 +8556,7 @@
         <v>14744.109609752441</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>712</v>
       </c>
@@ -8560,7 +8564,7 @@
         <v>14623.555991293913</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>713</v>
       </c>
@@ -8568,7 +8572,7 @@
         <v>14607.532303575448</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>714</v>
       </c>
@@ -8576,7 +8580,7 @@
         <v>14588.676214249574</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>715</v>
       </c>
@@ -8584,7 +8588,7 @@
         <v>14560.151098117076</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>716</v>
       </c>
@@ -8592,7 +8596,7 @@
         <v>14534.272364681065</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>717</v>
       </c>
@@ -8600,7 +8604,7 @@
         <v>14530.657245974789</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>718</v>
       </c>
@@ -8608,7 +8612,7 @@
         <v>14486.372906977083</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>719</v>
       </c>
@@ -8616,7 +8620,7 @@
         <v>14410.504446297056</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>720</v>
       </c>
@@ -8624,7 +8628,7 @@
         <v>14386.590979102715</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>721</v>
       </c>
@@ -8632,7 +8636,7 @@
         <v>14374.352159314878</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>722</v>
       </c>
@@ -8640,7 +8644,7 @@
         <v>14175.401228889425</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>723</v>
       </c>
@@ -8648,7 +8652,7 @@
         <v>14141.918257734942</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>724</v>
       </c>
@@ -8656,7 +8660,7 @@
         <v>14128.127972240343</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>725</v>
       </c>
@@ -8664,7 +8668,7 @@
         <v>14096.808149364873</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>726</v>
       </c>
@@ -8672,7 +8676,7 @@
         <v>14096.53183153286</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>727</v>
       </c>
@@ -8680,7 +8684,7 @@
         <v>14096.374624738655</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>728</v>
       </c>
@@ -8688,7 +8692,7 @@
         <v>14061.649974309546</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>729</v>
       </c>
@@ -8696,7 +8700,7 @@
         <v>14055.701622420544</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>730</v>
       </c>
@@ -8704,7 +8708,7 @@
         <v>14037.9485680779</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>731</v>
       </c>
@@ -8712,7 +8716,7 @@
         <v>14010.909460759163</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>732</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>14007.801564588841</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>733</v>
       </c>
@@ -8728,7 +8732,7 @@
         <v>13920.594485138638</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>734</v>
       </c>
@@ -8736,7 +8740,7 @@
         <v>13909.919485451495</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>735</v>
       </c>
@@ -8744,7 +8748,7 @@
         <v>13861.047842533888</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>736</v>
       </c>
@@ -8752,7 +8756,7 @@
         <v>13813.761254632996</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>737</v>
       </c>
@@ -8760,7 +8764,7 @@
         <v>13704.984891588205</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>738</v>
       </c>
@@ -8768,7 +8772,7 @@
         <v>13663.088962602853</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>739</v>
       </c>
@@ -8776,7 +8780,7 @@
         <v>13662.743426556546</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>740</v>
       </c>
@@ -8784,7 +8788,7 @@
         <v>13628.31611021702</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>741</v>
       </c>
@@ -8792,7 +8796,7 @@
         <v>13599.632347971761</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>742</v>
       </c>
@@ -8800,7 +8804,7 @@
         <v>13581.300751540935</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>743</v>
       </c>
@@ -8808,7 +8812,7 @@
         <v>13567.867994499649</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>744</v>
       </c>
@@ -8816,7 +8820,7 @@
         <v>13484.843343546852</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>745</v>
       </c>
@@ -8824,7 +8828,7 @@
         <v>13477.796555817269</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>746</v>
       </c>
@@ -8832,7 +8836,7 @@
         <v>13468.667343133853</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>747</v>
       </c>
@@ -8840,7 +8844,7 @@
         <v>13465.693433833214</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>748</v>
       </c>
@@ -8848,7 +8852,7 @@
         <v>13421.956474231081</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>749</v>
       </c>
@@ -8856,7 +8860,7 @@
         <v>13407.322965747118</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>750</v>
       </c>
@@ -8864,7 +8868,7 @@
         <v>13380.817909252546</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>751</v>
       </c>
@@ -8872,7 +8876,7 @@
         <v>13302.631318652704</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A754" t="s">
         <v>752</v>
       </c>
@@ -8880,7 +8884,7 @@
         <v>13239.563114367544</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A755" t="s">
         <v>753</v>
       </c>
@@ -8888,7 +8892,7 @@
         <v>13163.026858349096</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A756" t="s">
         <v>754</v>
       </c>
@@ -8896,7 +8900,7 @@
         <v>13003.430984207405</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A757" t="s">
         <v>755</v>
       </c>
@@ -8904,7 +8908,7 @@
         <v>12954.974432266174</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A758" t="s">
         <v>756</v>
       </c>
@@ -8912,7 +8916,7 @@
         <v>12840.006930637706</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A759" t="s">
         <v>757</v>
       </c>
@@ -8920,7 +8924,7 @@
         <v>12828.094168659652</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A760" t="s">
         <v>758</v>
       </c>
@@ -8928,7 +8932,7 @@
         <v>12816.266159099127</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A761" t="s">
         <v>759</v>
       </c>
@@ -8936,7 +8940,7 @@
         <v>12729.917386768244</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A762" t="s">
         <v>760</v>
       </c>
@@ -8944,7 +8948,7 @@
         <v>12723.577619014282</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A763" t="s">
         <v>761</v>
       </c>
@@ -8952,7 +8956,7 @@
         <v>12678.327965469265</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A764" t="s">
         <v>762</v>
       </c>
@@ -8960,7 +8964,7 @@
         <v>12673.133280062193</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A765" t="s">
         <v>763</v>
       </c>
@@ -8968,7 +8972,7 @@
         <v>12672.506691495233</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A766" t="s">
         <v>764</v>
       </c>
@@ -8976,7 +8980,7 @@
         <v>12642.78450342328</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A767" t="s">
         <v>765</v>
       </c>
@@ -8984,7 +8988,7 @@
         <v>12608.018990195995</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A768" t="s">
         <v>766</v>
       </c>
@@ -8992,7 +8996,7 @@
         <v>12584.116973391494</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A769" t="s">
         <v>767</v>
       </c>
@@ -9000,7 +9004,7 @@
         <v>12428.613314341212</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A770" t="s">
         <v>768</v>
       </c>
@@ -9008,7 +9012,7 @@
         <v>12378.100926650064</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A771" t="s">
         <v>769</v>
       </c>
@@ -9016,7 +9020,7 @@
         <v>12343.52338794595</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A772" t="s">
         <v>770</v>
       </c>
@@ -9024,7 +9028,7 @@
         <v>12335.761364131002</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A773" t="s">
         <v>771</v>
       </c>
@@ -9032,7 +9036,7 @@
         <v>12271.430234491829</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A774" t="s">
         <v>772</v>
       </c>
@@ -9040,7 +9044,7 @@
         <v>12267.884903274875</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A775" t="s">
         <v>773</v>
       </c>
@@ -9048,7 +9052,7 @@
         <v>12256.032730791903</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A776" t="s">
         <v>774</v>
       </c>
@@ -9056,7 +9060,7 @@
         <v>12149.57263329249</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A777" t="s">
         <v>775</v>
       </c>
@@ -9064,7 +9068,7 @@
         <v>12065.494151992574</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A778" t="s">
         <v>776</v>
       </c>
@@ -9072,7 +9076,7 @@
         <v>12051.141024815863</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A779" t="s">
         <v>777</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>12021.577135787258</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A780" t="s">
         <v>778</v>
       </c>
@@ -9088,7 +9092,7 @@
         <v>11984.639763453068</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A781" t="s">
         <v>779</v>
       </c>
@@ -9096,7 +9100,7 @@
         <v>11887.002781931325</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A782" t="s">
         <v>780</v>
       </c>
@@ -9104,7 +9108,7 @@
         <v>11815.478089247801</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A783" t="s">
         <v>781</v>
       </c>
@@ -9112,7 +9116,7 @@
         <v>11754.488504396937</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A784" t="s">
         <v>782</v>
       </c>
@@ -9120,7 +9124,7 @@
         <v>11724.845414759217</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A785" t="s">
         <v>783</v>
       </c>
@@ -9128,7 +9132,7 @@
         <v>11609.190324479709</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A786" t="s">
         <v>784</v>
       </c>
@@ -9136,7 +9140,7 @@
         <v>11547.761485848254</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A787" t="s">
         <v>785</v>
       </c>
@@ -9144,7 +9148,7 @@
         <v>11527.402135780632</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A788" t="s">
         <v>786</v>
       </c>
@@ -9152,7 +9156,7 @@
         <v>11519.436941717631</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A789" t="s">
         <v>787</v>
       </c>
@@ -9160,7 +9164,7 @@
         <v>11476.933388322859</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A790" t="s">
         <v>788</v>
       </c>
@@ -9168,7 +9172,7 @@
         <v>11463.528402883145</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A791" t="s">
         <v>789</v>
       </c>
@@ -9176,7 +9180,7 @@
         <v>11424.121147817032</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A792" t="s">
         <v>790</v>
       </c>
@@ -9184,7 +9188,7 @@
         <v>11419.459446666202</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A793" t="s">
         <v>791</v>
       </c>
@@ -9192,7 +9196,7 @@
         <v>11414.313820812871</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A794" t="s">
         <v>792</v>
       </c>
@@ -9200,7 +9204,7 @@
         <v>11388.985907445849</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A795" t="s">
         <v>793</v>
       </c>
@@ -9208,7 +9212,7 @@
         <v>11373.233955972411</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A796" t="s">
         <v>794</v>
       </c>
@@ -9216,7 +9220,7 @@
         <v>11294.985059751069</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A797" t="s">
         <v>795</v>
       </c>
@@ -9224,7 +9228,7 @@
         <v>11285.822965118681</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A798" t="s">
         <v>796</v>
       </c>
@@ -9232,7 +9236,7 @@
         <v>11196.390579800462</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A799" t="s">
         <v>797</v>
       </c>
@@ -9240,7 +9244,7 @@
         <v>11165.572085656884</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A800" t="s">
         <v>798</v>
       </c>
@@ -9248,7 +9252,7 @@
         <v>11157.41905639472</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A801" t="s">
         <v>799</v>
       </c>
@@ -9256,7 +9260,7 @@
         <v>11157.28461589108</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A802" t="s">
         <v>800</v>
       </c>
@@ -9264,7 +9268,7 @@
         <v>11095.733664639314</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A803" t="s">
         <v>801</v>
       </c>
@@ -9272,7 +9276,7 @@
         <v>11055.858175646075</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A804" t="s">
         <v>802</v>
       </c>
@@ -9280,7 +9284,7 @@
         <v>11017.071260318218</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A805" t="s">
         <v>803</v>
       </c>
@@ -9288,7 +9292,7 @@
         <v>10961.645438182937</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A806" t="s">
         <v>804</v>
       </c>
@@ -9296,7 +9300,7 @@
         <v>10911.810482225217</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A807" t="s">
         <v>805</v>
       </c>
@@ -9304,7 +9308,7 @@
         <v>10908.214364642836</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A808" t="s">
         <v>806</v>
       </c>
@@ -9312,7 +9316,7 @@
         <v>10873.465779801591</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A809" t="s">
         <v>807</v>
       </c>
@@ -9320,7 +9324,7 @@
         <v>10820.885289653441</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A810" t="s">
         <v>808</v>
       </c>
@@ -9328,7 +9332,7 @@
         <v>10686.78798797842</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A811" t="s">
         <v>809</v>
       </c>
@@ -9336,7 +9340,7 @@
         <v>10685.846107472731</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A812" t="s">
         <v>810</v>
       </c>
@@ -9344,7 +9348,7 @@
         <v>10592.668219103249</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A813" t="s">
         <v>811</v>
       </c>
@@ -9352,7 +9356,7 @@
         <v>10547.663945672204</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A814" t="s">
         <v>812</v>
       </c>
@@ -9360,7 +9364,7 @@
         <v>10512.706597256491</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A815" t="s">
         <v>813</v>
       </c>
@@ -9368,7 +9372,7 @@
         <v>10508.527045082097</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A816" t="s">
         <v>814</v>
       </c>
@@ -9376,7 +9380,7 @@
         <v>10428.087072900758</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A817" t="s">
         <v>815</v>
       </c>
@@ -9384,7 +9388,7 @@
         <v>10413.317474380279</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A818" t="s">
         <v>816</v>
       </c>
@@ -9392,7 +9396,7 @@
         <v>10411.611774890454</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A819" t="s">
         <v>817</v>
       </c>
@@ -9400,7 +9404,7 @@
         <v>10385.807623868252</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A820" t="s">
         <v>818</v>
       </c>
@@ -9408,7 +9412,7 @@
         <v>10365.734622238544</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A821" t="s">
         <v>819</v>
       </c>
@@ -9416,7 +9420,7 @@
         <v>10303.441865984119</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A822" t="s">
         <v>820</v>
       </c>
@@ -9424,7 +9428,7 @@
         <v>10300.291258017909</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A823" t="s">
         <v>821</v>
       </c>
@@ -9432,7 +9436,7 @@
         <v>10267.92539587568</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A824" t="s">
         <v>822</v>
       </c>
@@ -9440,7 +9444,7 @@
         <v>10251.173716226189</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A825" t="s">
         <v>823</v>
       </c>
@@ -9448,7 +9452,7 @@
         <v>10150.589261892519</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A826" t="s">
         <v>824</v>
       </c>
@@ -9456,7 +9460,7 @@
         <v>10145.133044460081</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A827" t="s">
         <v>825</v>
       </c>
@@ -9464,7 +9468,7 @@
         <v>10137.188248502915</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A828" t="s">
         <v>826</v>
       </c>
@@ -9472,7 +9476,7 @@
         <v>10119.090868254923</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A829" t="s">
         <v>827</v>
       </c>
@@ -9480,7 +9484,7 @@
         <v>10099.117085102902</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A830" t="s">
         <v>828</v>
       </c>
@@ -9488,7 +9492,7 @@
         <v>10057.484775031975</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A831" t="s">
         <v>829</v>
       </c>
@@ -9496,7 +9500,7 @@
         <v>10045.021333270155</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A832" t="s">
         <v>830</v>
       </c>
